--- a/libroDiario.xlsx
+++ b/libroDiario.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Libro Diario</t>
   </si>
@@ -34,10 +34,82 @@
     <t>Caja</t>
   </si>
   <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Capital</t>
+    <t>Primero</t>
+  </si>
+  <si>
+    <t>Enero 2</t>
+  </si>
+  <si>
+    <t>ASDASDASDASD</t>
+  </si>
+  <si>
+    <t>Segundo Capital</t>
+  </si>
+  <si>
+    <t>Segundo</t>
+  </si>
+  <si>
+    <t>Enero 3</t>
+  </si>
+  <si>
+    <t>FYJJJG</t>
+  </si>
+  <si>
+    <t>HABER</t>
+  </si>
+  <si>
+    <t>JHHH</t>
+  </si>
+  <si>
+    <t>Tercero</t>
+  </si>
+  <si>
+    <t>Enero 4</t>
+  </si>
+  <si>
+    <t>ASDASD</t>
+  </si>
+  <si>
+    <t>ZXCZXCZXC</t>
+  </si>
+  <si>
+    <t>QWEQWE</t>
+  </si>
+  <si>
+    <t>Tercer Capital</t>
+  </si>
+  <si>
+    <t>Cuarto</t>
+  </si>
+  <si>
+    <t>Enero 5</t>
+  </si>
+  <si>
+    <t>Prooveedores</t>
+  </si>
+  <si>
+    <t>Quinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t>Bancos</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>ULTIMO</t>
   </si>
 </sst>
 </file>
@@ -101,7 +173,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="13.5"/>
+    <col customWidth="1" min="3" max="3" width="14.88"/>
+    <col customWidth="1" min="4" max="26" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,32 +206,444 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3">
-        <v>100000.0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
-        <v>100000.0</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>99999.0</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>7777.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>99999.0</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>7777.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>89898.0</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>66666.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="3">
+        <v>343434.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/libroDiario.xlsx
+++ b/libroDiario.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Libro Diario</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>IVA</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Capital</t>
@@ -224,10 +227,12 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -236,18 +241,18 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
@@ -256,10 +261,12 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -268,18 +275,18 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -288,10 +295,12 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -302,7 +311,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -311,15 +320,15 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>6</v>
@@ -344,7 +353,7 @@
     <row r="16">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
@@ -355,7 +364,7 @@
     <row r="17">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -366,7 +375,7 @@
     <row r="18">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
@@ -375,10 +384,12 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
@@ -387,18 +398,18 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
@@ -407,10 +418,12 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
@@ -419,10 +432,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -454,10 +467,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
@@ -466,10 +479,12 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
@@ -478,10 +493,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -509,10 +524,12 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3">
@@ -521,18 +538,18 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
@@ -541,7 +558,9 @@
       <c r="E35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
         <v>6</v>
@@ -555,7 +574,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37" s="3">
         <v>343434.0</v>
@@ -563,10 +582,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3"/>
       <c r="E38" s="3"/>
